--- a/m1_jacquemin_24/data/bdd_propre_PF_RNCFS_WG_clean.xlsx
+++ b/m1_jacquemin_24/data/bdd_propre_PF_RNCFS_WG_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anais\Documents\ofb_m1\ofb-ungulates\m1_jacquemin_24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885DCD4-9BB5-4651-B6BA-50678C45CC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751E470B-5E19-4CD8-97E1-7BA9347BAB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:J3405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
